--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Mmp12</t>
+  </si>
+  <si>
+    <t>Plaur</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Mmp12</t>
-  </si>
-  <si>
-    <t>Plaur</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.941457333333333</v>
+        <v>0.02134533333333333</v>
       </c>
       <c r="H2">
-        <v>5.824372</v>
+        <v>0.064036</v>
       </c>
       <c r="I2">
-        <v>0.1591458479631234</v>
+        <v>0.0008814202742382074</v>
       </c>
       <c r="J2">
-        <v>0.1591458479631234</v>
+        <v>0.0008814202742382074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.92730033333333</v>
+        <v>11.128273</v>
       </c>
       <c r="N2">
-        <v>122.781901</v>
+        <v>33.384819</v>
       </c>
       <c r="O2">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="P2">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="Q2">
-        <v>79.45860736568576</v>
+        <v>0.2375366966093333</v>
       </c>
       <c r="R2">
-        <v>715.127466291172</v>
+        <v>2.137830269484</v>
       </c>
       <c r="S2">
-        <v>0.06241097816374231</v>
+        <v>0.000174080864840156</v>
       </c>
       <c r="T2">
-        <v>0.06241097816374231</v>
+        <v>0.000174080864840156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.941457333333333</v>
+        <v>0.02134533333333333</v>
       </c>
       <c r="H3">
-        <v>5.824372</v>
+        <v>0.064036</v>
       </c>
       <c r="I3">
-        <v>0.1591458479631234</v>
+        <v>0.0008814202742382074</v>
       </c>
       <c r="J3">
-        <v>0.1591458479631234</v>
+        <v>0.0008814202742382074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>22.794685</v>
       </c>
       <c r="O3">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="P3">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="Q3">
-        <v>14.75163611809111</v>
+        <v>0.1621867165177778</v>
       </c>
       <c r="R3">
-        <v>132.76472506282</v>
+        <v>1.45968044866</v>
       </c>
       <c r="S3">
-        <v>0.01158671250565167</v>
+        <v>0.0001188599668178202</v>
       </c>
       <c r="T3">
-        <v>0.01158671250565167</v>
+        <v>0.0001188599668178202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.941457333333333</v>
+        <v>0.02134533333333333</v>
       </c>
       <c r="H4">
-        <v>5.824372</v>
+        <v>0.064036</v>
       </c>
       <c r="I4">
-        <v>0.1591458479631234</v>
+        <v>0.0008814202742382074</v>
       </c>
       <c r="J4">
-        <v>0.1591458479631234</v>
+        <v>0.0008814202742382074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.436425</v>
+        <v>8.642352000000001</v>
       </c>
       <c r="N4">
-        <v>19.309275</v>
+        <v>25.927056</v>
       </c>
       <c r="O4">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="P4">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="Q4">
-        <v>12.4960445167</v>
+        <v>0.184473884224</v>
       </c>
       <c r="R4">
-        <v>112.4644006503</v>
+        <v>1.660264958016</v>
       </c>
       <c r="S4">
-        <v>0.009815051978896266</v>
+        <v>0.0001351933143995526</v>
       </c>
       <c r="T4">
-        <v>0.009815051978896266</v>
+        <v>0.0001351933143995525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.941457333333333</v>
+        <v>0.02134533333333333</v>
       </c>
       <c r="H5">
-        <v>5.824372</v>
+        <v>0.064036</v>
       </c>
       <c r="I5">
-        <v>0.1591458479631234</v>
+        <v>0.0008814202742382074</v>
       </c>
       <c r="J5">
-        <v>0.1591458479631234</v>
+        <v>0.0008814202742382074</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.40125466666667</v>
+        <v>28.976716</v>
       </c>
       <c r="N5">
-        <v>148.203764</v>
+        <v>86.930148</v>
       </c>
       <c r="O5">
-        <v>0.4733589112063359</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="P5">
-        <v>0.473358911206336</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="Q5">
-        <v>95.91042814846756</v>
+        <v>0.6185176619253333</v>
       </c>
       <c r="R5">
-        <v>863.1938533362081</v>
+        <v>5.566658957327999</v>
       </c>
       <c r="S5">
-        <v>0.07533310531483317</v>
+        <v>0.0004532861281806788</v>
       </c>
       <c r="T5">
-        <v>0.07533310531483317</v>
+        <v>0.0004532861281806788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.02134533333333333</v>
+        <v>24.19563033333334</v>
       </c>
       <c r="H6">
-        <v>0.064036</v>
+        <v>72.58689100000001</v>
       </c>
       <c r="I6">
-        <v>0.001749727441888425</v>
+        <v>0.9991185797257618</v>
       </c>
       <c r="J6">
-        <v>0.001749727441888425</v>
+        <v>0.9991185797257618</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.92730033333333</v>
+        <v>11.128273</v>
       </c>
       <c r="N6">
-        <v>122.781901</v>
+        <v>33.384819</v>
       </c>
       <c r="O6">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="P6">
-        <v>0.3921621516522625</v>
+        <v>0.1975004092010595</v>
       </c>
       <c r="Q6">
-        <v>0.8736068680484442</v>
+        <v>269.2555797564144</v>
       </c>
       <c r="R6">
-        <v>7.862461812435999</v>
+        <v>2423.300217807729</v>
       </c>
       <c r="S6">
-        <v>0.0006861768784159738</v>
+        <v>0.1973263283362193</v>
       </c>
       <c r="T6">
-        <v>0.0006861768784159738</v>
+        <v>0.1973263283362193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.02134533333333333</v>
+        <v>24.19563033333334</v>
       </c>
       <c r="H7">
-        <v>0.064036</v>
+        <v>72.58689100000001</v>
       </c>
       <c r="I7">
-        <v>0.001749727441888425</v>
+        <v>0.9991185797257618</v>
       </c>
       <c r="J7">
-        <v>0.001749727441888425</v>
+        <v>0.9991185797257618</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>22.794685</v>
       </c>
       <c r="O7">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="P7">
-        <v>0.07280562235174674</v>
+        <v>0.1348505024127659</v>
       </c>
       <c r="Q7">
-        <v>0.1621867165177778</v>
+        <v>183.8439239415928</v>
       </c>
       <c r="R7">
-        <v>1.45968044866</v>
+        <v>1654.595315474335</v>
       </c>
       <c r="S7">
-        <v>0.0001273899953526165</v>
+        <v>0.1347316424459481</v>
       </c>
       <c r="T7">
-        <v>0.0001273899953526165</v>
+        <v>0.1347316424459481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.02134533333333333</v>
+        <v>24.19563033333334</v>
       </c>
       <c r="H8">
-        <v>0.064036</v>
+        <v>72.58689100000001</v>
       </c>
       <c r="I8">
-        <v>0.001749727441888425</v>
+        <v>0.9991185797257618</v>
       </c>
       <c r="J8">
-        <v>0.001749727441888425</v>
+        <v>0.9991185797257618</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.436425</v>
+        <v>8.642352000000001</v>
       </c>
       <c r="N8">
-        <v>19.309275</v>
+        <v>25.927056</v>
       </c>
       <c r="O8">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="P8">
-        <v>0.06167331478965488</v>
+        <v>0.153381217054937</v>
       </c>
       <c r="Q8">
-        <v>0.1373876371</v>
+        <v>209.1071542025441</v>
       </c>
       <c r="R8">
-        <v>1.2364887339</v>
+        <v>1881.964387822896</v>
       </c>
       <c r="S8">
-        <v>0.0001079114913196824</v>
+        <v>0.1532460237405374</v>
       </c>
       <c r="T8">
-        <v>0.0001079114913196824</v>
+        <v>0.1532460237405374</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.02134533333333333</v>
+        <v>24.19563033333334</v>
       </c>
       <c r="H9">
-        <v>0.064036</v>
+        <v>72.58689100000001</v>
       </c>
       <c r="I9">
-        <v>0.001749727441888425</v>
+        <v>0.9991185797257618</v>
       </c>
       <c r="J9">
-        <v>0.001749727441888425</v>
+        <v>0.9991185797257618</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>49.40125466666667</v>
+        <v>28.976716</v>
       </c>
       <c r="N9">
-        <v>148.203764</v>
+        <v>86.930148</v>
       </c>
       <c r="O9">
-        <v>0.4733589112063359</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="P9">
-        <v>0.473358911206336</v>
+        <v>0.5142678713312377</v>
       </c>
       <c r="Q9">
-        <v>1.054486247944889</v>
+        <v>701.1099086099855</v>
       </c>
       <c r="R9">
-        <v>9.490376231503999</v>
+        <v>6309.989177489869</v>
       </c>
       <c r="S9">
-        <v>0.0008282490768001522</v>
+        <v>0.5138145852030571</v>
       </c>
       <c r="T9">
-        <v>0.0008282490768001523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>10.23643066666667</v>
-      </c>
-      <c r="H10">
-        <v>30.709292</v>
-      </c>
-      <c r="I10">
-        <v>0.8391044245949882</v>
-      </c>
-      <c r="J10">
-        <v>0.8391044245949882</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>40.92730033333333</v>
-      </c>
-      <c r="N10">
-        <v>122.781901</v>
-      </c>
-      <c r="O10">
-        <v>0.3921621516522625</v>
-      </c>
-      <c r="P10">
-        <v>0.3921621516522625</v>
-      </c>
-      <c r="Q10">
-        <v>418.9494722360101</v>
-      </c>
-      <c r="R10">
-        <v>3770.545250124092</v>
-      </c>
-      <c r="S10">
-        <v>0.3290649966101043</v>
-      </c>
-      <c r="T10">
-        <v>0.3290649966101043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>10.23643066666667</v>
-      </c>
-      <c r="H11">
-        <v>30.709292</v>
-      </c>
-      <c r="I11">
-        <v>0.8391044245949882</v>
-      </c>
-      <c r="J11">
-        <v>0.8391044245949882</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>7.598228333333334</v>
-      </c>
-      <c r="N11">
-        <v>22.794685</v>
-      </c>
-      <c r="O11">
-        <v>0.07280562235174674</v>
-      </c>
-      <c r="P11">
-        <v>0.07280562235174674</v>
-      </c>
-      <c r="Q11">
-        <v>77.77873752366888</v>
-      </c>
-      <c r="R11">
-        <v>700.00863771302</v>
-      </c>
-      <c r="S11">
-        <v>0.06109151985074247</v>
-      </c>
-      <c r="T11">
-        <v>0.06109151985074247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>10.23643066666667</v>
-      </c>
-      <c r="H12">
-        <v>30.709292</v>
-      </c>
-      <c r="I12">
-        <v>0.8391044245949882</v>
-      </c>
-      <c r="J12">
-        <v>0.8391044245949882</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>6.436425</v>
-      </c>
-      <c r="N12">
-        <v>19.309275</v>
-      </c>
-      <c r="O12">
-        <v>0.06167331478965488</v>
-      </c>
-      <c r="P12">
-        <v>0.06167331478965488</v>
-      </c>
-      <c r="Q12">
-        <v>65.88601825369999</v>
-      </c>
-      <c r="R12">
-        <v>592.9741642833</v>
-      </c>
-      <c r="S12">
-        <v>0.05175035131943894</v>
-      </c>
-      <c r="T12">
-        <v>0.05175035131943894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>10.23643066666667</v>
-      </c>
-      <c r="H13">
-        <v>30.709292</v>
-      </c>
-      <c r="I13">
-        <v>0.8391044245949882</v>
-      </c>
-      <c r="J13">
-        <v>0.8391044245949882</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>49.40125466666667</v>
-      </c>
-      <c r="N13">
-        <v>148.203764</v>
-      </c>
-      <c r="O13">
-        <v>0.4733589112063359</v>
-      </c>
-      <c r="P13">
-        <v>0.473358911206336</v>
-      </c>
-      <c r="Q13">
-        <v>505.6925182416764</v>
-      </c>
-      <c r="R13">
-        <v>4551.232664175088</v>
-      </c>
-      <c r="S13">
-        <v>0.3971975568147026</v>
-      </c>
-      <c r="T13">
-        <v>0.3971975568147027</v>
+        <v>0.5138145852030571</v>
       </c>
     </row>
   </sheetData>
